--- a/возврат_поддонов.xlsx
+++ b/возврат_поддонов.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +773,6 @@
           <t>+7 999 123-45-67</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>доставка выполнена успешно.</t>
@@ -778,6 +781,505 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000EC283C700000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-06 11:44</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Тандер</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Кропоткин</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>МММХХХ22222</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FB9447EC0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-06 11:45</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Форпост</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>МММХХХ22222</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FB9447ED0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-06 11:46</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Екатиринбург</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>МММХХХ22222</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FB9447EE0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-06 12:54</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Форпост</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>МММХХХ22222</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FB9447F40000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-06 15:12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Тюмень</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ТЕСТ1234</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Иванов Тест Иванович</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FC55F7CA0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-06 15:59</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Тюмень</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ТЕСТ1234133</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FC55F7CC0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-06 16:08</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Тандер</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ТЕСТ1234133</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FC55F7CE0000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-11 16:22</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Тандер</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ТЕСТ1234133</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FC55F7D00000</t>
         </is>
       </c>
     </row>

--- a/возврат_поддонов.xlsx
+++ b/возврат_поддонов.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -29,7 +29,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,24 +51,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,13 +441,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1280,6 +1292,187 @@
       <c r="M14" t="inlineStr">
         <is>
           <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FC55F7D00000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-11 16:34</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Тандер</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ТЕСТ1234133</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FC55F7D20000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-11 16:30</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45941</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Тандер</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Екатеринбург</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ТЕСТ1234133</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FC55F7D10000</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-10 10:17</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>45940</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Х5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>РЦ Тюмень</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ТЕСТ1234133</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>20 тентовый</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Иванов Иван Иванович</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>45 12 345678</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>+7 999 123-45-67</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>7701234567</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>00000000D7928C4C1E3BFA4C916DC6D2C725CE360700DA06F7E4286F7449B98F61081F2F89B200000000010C0000DA06F7E4286F7449B98F61081F2F89B20000FC7DE2CF0000</t>
         </is>
       </c>
     </row>
